--- a/Subjects_List_fMRI.xlsx
+++ b/Subjects_List_fMRI.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0122ACE-88E8-7E4D-AE42-077008EDDCC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE98A0D-A588-9041-B958-D9CF569C112A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="1560" windowWidth="24880" windowHeight="16800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2260" yWindow="1640" windowWidth="24880" windowHeight="16800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="229">
   <si>
     <t>Group</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -726,14 +726,140 @@
     <t>咽部不适，抬头方向移动明显（良）</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>sub35</t>
+  </si>
+  <si>
+    <t>sub36</t>
+  </si>
+  <si>
+    <t>曾令嘉</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>rule</t>
+  </si>
+  <si>
+    <t>上右下左</t>
+  </si>
+  <si>
+    <t>上左下右</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>张智涵</t>
+  </si>
+  <si>
+    <t>202303038_wl</t>
+  </si>
+  <si>
+    <t>202303039_wl</t>
+  </si>
+  <si>
+    <t>点头方向头动明显</t>
+  </si>
+  <si>
+    <t>点头方向头动略明显，刺激呈现结束后会大幅度移动，每两个run会起床上卫生间</t>
+  </si>
+  <si>
+    <t>抬头方向头动明显</t>
+  </si>
+  <si>
+    <t>部分反应按错按键，1错按成2，4错按成3</t>
+  </si>
+  <si>
+    <t>sub38</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>sub37</t>
+  </si>
+  <si>
+    <t>202303054_wl</t>
+  </si>
+  <si>
+    <t>202303055_wl</t>
+  </si>
+  <si>
+    <t>魏葳</t>
+  </si>
+  <si>
+    <t>李双双</t>
+  </si>
+  <si>
+    <t>李积炜</t>
+  </si>
+  <si>
+    <t>梁莹莹</t>
+  </si>
+  <si>
+    <t>齐锦彤</t>
+  </si>
+  <si>
+    <t>陈元惠</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>sub39</t>
+  </si>
+  <si>
+    <t>sub40</t>
+  </si>
+  <si>
+    <t>sub41</t>
+  </si>
+  <si>
+    <t>sub42</t>
+  </si>
+  <si>
+    <t>仪器出错导致数据丢失</t>
+  </si>
+  <si>
+    <t>202307072_wl</t>
+  </si>
+  <si>
+    <t>202307073_wl</t>
+  </si>
+  <si>
+    <t>202307076_wl</t>
+  </si>
+  <si>
+    <t>202307077_wl</t>
+  </si>
+  <si>
+    <t>被试第一个run按警报球中断实验</t>
+  </si>
+  <si>
+    <t>sub43</t>
+  </si>
+  <si>
+    <t>202304012_wl</t>
+  </si>
+  <si>
+    <t>龚昱宁</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="0.00_ "/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -757,14 +883,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -772,7 +898,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -792,7 +918,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -826,11 +952,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -861,38 +1024,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -904,9 +1067,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -922,7 +1102,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1243,62 +1423,64 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T36"/>
+  <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="21" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="6" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="37.1640625" customWidth="1"/>
-    <col min="14" max="14" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="45.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="21" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" style="6" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32.6640625" customWidth="1"/>
+    <col min="15" max="15" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="45.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" ht="80">
+    <row r="1" spans="1:21" s="3" customFormat="1" ht="80">
       <c r="A1" s="11"/>
       <c r="B1" s="11"/>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="18"/>
+      <c r="G1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="18"/>
       <c r="J1" s="11"/>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="11"/>
+      <c r="L1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="11"/>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="N1" s="11"/>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1306,61 +1488,64 @@
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="F2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="I2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="L2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:21" ht="16">
       <c r="A3" s="8" t="s">
         <v>19</v>
       </c>
@@ -1368,50 +1553,53 @@
         <v>39</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="20">
+      <c r="F3" s="20">
         <v>44930</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="4">
+      <c r="I3" s="20"/>
+      <c r="J3" s="4">
         <v>20</v>
       </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="14">
+      <c r="K3" s="17"/>
+      <c r="L3" s="14">
         <f>22/24*100</f>
         <v>91.666666666666657</v>
       </c>
-      <c r="L3" s="26" t="s">
+      <c r="M3" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="28"/>
+      <c r="N3" s="2"/>
       <c r="O3" s="28"/>
-      <c r="P3" s="28" t="s">
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="Q3" s="28" t="s">
+      <c r="R3" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="R3" s="28" t="s">
+      <c r="S3" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="S3" s="28" t="s">
+      <c r="T3" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="T3" s="28"/>
-    </row>
-    <row r="4" spans="1:20" ht="15.75" customHeight="1">
+      <c r="U3" s="28"/>
+    </row>
+    <row r="4" spans="1:21" ht="15.75" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>20</v>
       </c>
@@ -1419,46 +1607,49 @@
         <v>39</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="20">
+      <c r="F4" s="20">
         <v>44930</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="4">
+      <c r="I4" s="20"/>
+      <c r="J4" s="4">
         <v>20</v>
       </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="14">
+      <c r="K4" s="17"/>
+      <c r="L4" s="14">
         <f>10/24*100</f>
         <v>41.666666666666671</v>
       </c>
-      <c r="L4" s="26" t="s">
+      <c r="M4" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="28"/>
+      <c r="N4" s="2"/>
       <c r="O4" s="28"/>
       <c r="P4" s="28"/>
-      <c r="Q4" s="28" t="s">
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="R4" s="28" t="s">
+      <c r="S4" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="S4" s="28"/>
       <c r="T4" s="28"/>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="U4" s="28"/>
+    </row>
+    <row r="5" spans="1:21" ht="16">
       <c r="A5" s="8" t="s">
         <v>21</v>
       </c>
@@ -1466,42 +1657,45 @@
         <v>38</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="20">
+      <c r="F5" s="20">
         <v>44930</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="G5" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="4">
+      <c r="I5" s="20"/>
+      <c r="J5" s="4">
         <v>21</v>
       </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="27">
+      <c r="K5" s="17"/>
+      <c r="L5" s="27">
         <f>22/24*100</f>
         <v>91.666666666666657</v>
       </c>
-      <c r="L5" s="26" t="s">
+      <c r="M5" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="28"/>
+      <c r="N5" s="2"/>
       <c r="O5" s="28"/>
       <c r="P5" s="28"/>
       <c r="Q5" s="28"/>
       <c r="R5" s="28"/>
       <c r="S5" s="28"/>
       <c r="T5" s="28"/>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="U5" s="28"/>
+    </row>
+    <row r="6" spans="1:21" ht="16">
       <c r="A6" s="8" t="s">
         <v>18</v>
       </c>
@@ -1509,46 +1703,49 @@
         <v>38</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="E6" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="20">
+      <c r="F6" s="20">
         <v>44930</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="G6" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="4">
+      <c r="I6" s="20"/>
+      <c r="J6" s="4">
         <v>23</v>
       </c>
-      <c r="J6" s="17"/>
-      <c r="K6" s="14">
+      <c r="K6" s="17"/>
+      <c r="L6" s="14">
         <f>-6/24*100</f>
         <v>-25</v>
       </c>
-      <c r="L6" s="26" t="s">
+      <c r="M6" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="28"/>
+      <c r="N6" s="2"/>
       <c r="O6" s="28"/>
       <c r="P6" s="28"/>
       <c r="Q6" s="28"/>
-      <c r="R6" s="28" t="s">
-        <v>168</v>
-      </c>
+      <c r="R6" s="28"/>
       <c r="S6" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="T6" s="28"/>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="T6" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="U6" s="28"/>
+    </row>
+    <row r="7" spans="1:21" ht="16">
       <c r="A7" s="8" t="s">
         <v>19</v>
       </c>
@@ -1556,44 +1753,47 @@
         <v>38</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="20">
+      <c r="F7" s="20">
         <v>44930</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="G7" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="H7" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="4">
+      <c r="I7" s="23"/>
+      <c r="J7" s="4">
         <v>23</v>
       </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="27">
+      <c r="K7" s="17"/>
+      <c r="L7" s="27">
         <f>22/24*100</f>
         <v>91.666666666666657</v>
       </c>
-      <c r="L7" s="26" t="s">
+      <c r="M7" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="28"/>
+      <c r="N7" s="8"/>
       <c r="O7" s="28"/>
       <c r="P7" s="28"/>
       <c r="Q7" s="28"/>
-      <c r="R7" s="28" t="s">
+      <c r="R7" s="28"/>
+      <c r="S7" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="S7" s="28"/>
       <c r="T7" s="28"/>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="U7" s="28"/>
+    </row>
+    <row r="8" spans="1:21" ht="16">
       <c r="A8" s="8" t="s">
         <v>20</v>
       </c>
@@ -1601,42 +1801,45 @@
         <v>38</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="20">
+      <c r="F8" s="20">
         <v>44930</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="G8" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="H8" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="4">
+      <c r="I8" s="20"/>
+      <c r="J8" s="4">
         <v>22</v>
       </c>
-      <c r="J8" s="17"/>
-      <c r="K8" s="27">
+      <c r="K8" s="17"/>
+      <c r="L8" s="27">
         <f>18/24*100</f>
         <v>75</v>
       </c>
-      <c r="L8" s="26" t="s">
+      <c r="M8" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="28"/>
+      <c r="N8" s="2"/>
       <c r="O8" s="28"/>
       <c r="P8" s="28"/>
       <c r="Q8" s="28"/>
       <c r="R8" s="28"/>
       <c r="S8" s="28"/>
       <c r="T8" s="28"/>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="U8" s="28"/>
+    </row>
+    <row r="9" spans="1:21" ht="16">
       <c r="A9" s="8" t="s">
         <v>21</v>
       </c>
@@ -1644,42 +1847,45 @@
         <v>38</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="20">
+      <c r="F9" s="20">
         <v>44931</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="G9" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="H9" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="4">
+      <c r="I9" s="20"/>
+      <c r="J9" s="4">
         <v>23</v>
       </c>
-      <c r="J9" s="17"/>
-      <c r="K9" s="14">
+      <c r="K9" s="17"/>
+      <c r="L9" s="14">
         <f>12/24*100</f>
         <v>50</v>
       </c>
-      <c r="L9" s="26" t="s">
+      <c r="M9" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="28"/>
+      <c r="N9" s="2"/>
       <c r="O9" s="28"/>
       <c r="P9" s="28"/>
       <c r="Q9" s="28"/>
       <c r="R9" s="28"/>
       <c r="S9" s="28"/>
       <c r="T9" s="28"/>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="U9" s="28"/>
+    </row>
+    <row r="10" spans="1:21" ht="16">
       <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
@@ -1687,44 +1893,47 @@
         <v>38</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="E10" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="20">
+      <c r="F10" s="20">
         <v>44931</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="G10" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="H10" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="4">
+      <c r="I10" s="20"/>
+      <c r="J10" s="4">
         <v>25</v>
       </c>
-      <c r="J10" s="17"/>
-      <c r="K10" s="14">
+      <c r="K10" s="17"/>
+      <c r="L10" s="14">
         <f>20/24*100</f>
         <v>83.333333333333343</v>
       </c>
-      <c r="L10" s="26" t="s">
+      <c r="M10" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="M10" s="8"/>
-      <c r="N10" s="28"/>
+      <c r="N10" s="8"/>
       <c r="O10" s="28"/>
       <c r="P10" s="28"/>
       <c r="Q10" s="28"/>
       <c r="R10" s="28"/>
       <c r="S10" s="28"/>
-      <c r="T10" s="28" t="s">
+      <c r="T10" s="28"/>
+      <c r="U10" s="28" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:21" ht="16">
       <c r="A11" s="8" t="s">
         <v>19</v>
       </c>
@@ -1732,41 +1941,44 @@
         <v>38</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="E11" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="20">
+      <c r="F11" s="20">
         <v>44932</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="G11" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="H11" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="4">
+      <c r="I11" s="20"/>
+      <c r="J11" s="4">
         <v>23</v>
       </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28" t="s">
+      <c r="K11" s="17"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="P11" s="28"/>
       <c r="Q11" s="28"/>
       <c r="R11" s="28"/>
       <c r="S11" s="28"/>
-      <c r="T11" s="28" t="s">
+      <c r="T11" s="28"/>
+      <c r="U11" s="28" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:21" ht="16">
       <c r="A12" s="8" t="s">
         <v>20</v>
       </c>
@@ -1774,43 +1986,46 @@
         <v>38</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="E12" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="20">
+      <c r="F12" s="20">
         <v>44932</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="G12" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="H12" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="4">
+      <c r="I12" s="20"/>
+      <c r="J12" s="4">
         <v>23</v>
       </c>
-      <c r="J12" s="17"/>
-      <c r="K12" s="14">
+      <c r="K12" s="17"/>
+      <c r="L12" s="14">
         <v>91.67</v>
       </c>
-      <c r="L12" s="26" t="s">
+      <c r="M12" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="28"/>
+      <c r="N12" s="2"/>
       <c r="O12" s="28"/>
       <c r="P12" s="28"/>
       <c r="Q12" s="28"/>
       <c r="R12" s="28"/>
       <c r="S12" s="28"/>
-      <c r="T12" s="28" t="s">
+      <c r="T12" s="28"/>
+      <c r="U12" s="28" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:21" ht="16">
       <c r="A13" s="8" t="s">
         <v>21</v>
       </c>
@@ -1818,39 +2033,42 @@
         <v>38</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="E13" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="20">
+      <c r="F13" s="20">
         <v>44932</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="G13" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="H13" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="28"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="2"/>
       <c r="O13" s="28"/>
       <c r="P13" s="28"/>
-      <c r="Q13" s="28" t="s">
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28" t="s">
+      <c r="S13" s="28"/>
+      <c r="T13" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="T13" s="28"/>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="U13" s="28"/>
+    </row>
+    <row r="14" spans="1:21" ht="16">
       <c r="A14" s="8" t="s">
         <v>18</v>
       </c>
@@ -1858,41 +2076,44 @@
         <v>38</v>
       </c>
       <c r="C14" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="E14" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="20">
+      <c r="F14" s="20">
         <v>44932</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="G14" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="H14" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="4">
+      <c r="I14" s="20"/>
+      <c r="J14" s="4">
         <v>30</v>
       </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="14">
+      <c r="K14" s="4"/>
+      <c r="L14" s="14">
         <v>99</v>
       </c>
-      <c r="L14" s="24">
+      <c r="M14" s="24">
         <v>18922199027</v>
       </c>
-      <c r="M14" s="8"/>
-      <c r="N14" s="28"/>
+      <c r="N14" s="8"/>
       <c r="O14" s="28"/>
       <c r="P14" s="28"/>
       <c r="Q14" s="28"/>
       <c r="R14" s="28"/>
       <c r="S14" s="28"/>
       <c r="T14" s="28"/>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="U14" s="28"/>
+    </row>
+    <row r="15" spans="1:21" ht="16">
       <c r="A15" s="8" t="s">
         <v>19</v>
       </c>
@@ -1900,42 +2121,45 @@
         <v>38</v>
       </c>
       <c r="C15" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="E15" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="20">
+      <c r="F15" s="20">
         <v>44932</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="G15" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="H15" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="4">
+      <c r="I15" s="23"/>
+      <c r="J15" s="4">
         <v>18</v>
       </c>
-      <c r="J15" s="17"/>
-      <c r="K15" s="14">
+      <c r="K15" s="17"/>
+      <c r="L15" s="14">
         <f>20/24*100</f>
         <v>83.333333333333343</v>
       </c>
-      <c r="L15" s="26" t="s">
+      <c r="M15" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="28"/>
+      <c r="N15" s="2"/>
       <c r="O15" s="28"/>
       <c r="P15" s="28"/>
       <c r="Q15" s="28"/>
       <c r="R15" s="28"/>
       <c r="S15" s="28"/>
       <c r="T15" s="28"/>
-    </row>
-    <row r="16" spans="1:20">
+      <c r="U15" s="28"/>
+    </row>
+    <row r="16" spans="1:21" ht="16">
       <c r="A16" s="8" t="s">
         <v>20</v>
       </c>
@@ -1943,44 +2167,47 @@
         <v>38</v>
       </c>
       <c r="C16" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="E16" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="20">
+      <c r="F16" s="20">
         <v>44932</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="G16" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="H16" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="H16" s="20"/>
-      <c r="I16" s="4">
+      <c r="I16" s="20"/>
+      <c r="J16" s="4">
         <v>27</v>
       </c>
-      <c r="J16" s="17"/>
-      <c r="K16" s="14">
+      <c r="K16" s="17"/>
+      <c r="L16" s="14">
         <f>14/24*100</f>
         <v>58.333333333333336</v>
       </c>
-      <c r="L16" s="26" t="s">
+      <c r="M16" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28" t="s">
+      <c r="N16" s="2"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="P16" s="28"/>
       <c r="Q16" s="28"/>
       <c r="R16" s="28"/>
       <c r="S16" s="28"/>
       <c r="T16" s="28"/>
-    </row>
-    <row r="17" spans="1:20">
+      <c r="U16" s="28"/>
+    </row>
+    <row r="17" spans="1:21" ht="16">
       <c r="A17" s="8" t="s">
         <v>21</v>
       </c>
@@ -1988,44 +2215,47 @@
         <v>38</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="E17" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="20">
+      <c r="F17" s="20">
         <v>44933</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="G17" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="H17" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="4">
+      <c r="I17" s="20"/>
+      <c r="J17" s="4">
         <v>28</v>
       </c>
-      <c r="J17" s="17"/>
-      <c r="K17" s="14">
+      <c r="K17" s="17"/>
+      <c r="L17" s="14">
         <f>20/24*100</f>
         <v>83.333333333333343</v>
       </c>
-      <c r="L17" s="26" t="s">
+      <c r="M17" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="M17" s="8"/>
-      <c r="N17" s="28" t="s">
+      <c r="N17" s="8"/>
+      <c r="O17" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="O17" s="28"/>
       <c r="P17" s="28"/>
       <c r="Q17" s="28"/>
       <c r="R17" s="28"/>
       <c r="S17" s="28"/>
       <c r="T17" s="28"/>
-    </row>
-    <row r="18" spans="1:20">
+      <c r="U17" s="28"/>
+    </row>
+    <row r="18" spans="1:21" ht="16">
       <c r="A18" s="8" t="s">
         <v>18</v>
       </c>
@@ -2033,41 +2263,44 @@
         <v>38</v>
       </c>
       <c r="C18" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="E18" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="20">
+      <c r="F18" s="20">
         <v>44933</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="G18" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="H18" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="H18" s="20"/>
-      <c r="I18" s="4">
+      <c r="I18" s="20"/>
+      <c r="J18" s="4">
         <v>39</v>
       </c>
-      <c r="J18" s="17"/>
-      <c r="K18" s="14">
+      <c r="K18" s="17"/>
+      <c r="L18" s="14">
         <v>83.33</v>
       </c>
-      <c r="L18" s="26" t="s">
+      <c r="M18" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="M18" s="8"/>
-      <c r="N18" s="28"/>
+      <c r="N18" s="8"/>
       <c r="O18" s="28"/>
       <c r="P18" s="28"/>
       <c r="Q18" s="28"/>
       <c r="R18" s="28"/>
       <c r="S18" s="28"/>
       <c r="T18" s="28"/>
-    </row>
-    <row r="19" spans="1:20">
+      <c r="U18" s="28"/>
+    </row>
+    <row r="19" spans="1:21" ht="16">
       <c r="A19" s="8" t="s">
         <v>19</v>
       </c>
@@ -2075,43 +2308,46 @@
         <v>38</v>
       </c>
       <c r="C19" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="E19" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="20">
+      <c r="F19" s="20">
         <v>44933</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="G19" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="H19" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="H19" s="20"/>
-      <c r="I19" s="4">
+      <c r="I19" s="20"/>
+      <c r="J19" s="4">
         <v>22</v>
       </c>
-      <c r="J19" s="17"/>
-      <c r="K19" s="14">
+      <c r="K19" s="17"/>
+      <c r="L19" s="14">
         <v>100</v>
       </c>
-      <c r="L19" s="26" t="s">
+      <c r="M19" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="M19" s="8"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28" t="s">
+      <c r="N19" s="8"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="P19" s="28"/>
       <c r="Q19" s="28"/>
       <c r="R19" s="28"/>
       <c r="S19" s="28"/>
       <c r="T19" s="28"/>
-    </row>
-    <row r="20" spans="1:20">
+      <c r="U19" s="28"/>
+    </row>
+    <row r="20" spans="1:21" ht="16">
       <c r="A20" s="8" t="s">
         <v>20</v>
       </c>
@@ -2119,41 +2355,44 @@
         <v>38</v>
       </c>
       <c r="C20" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="E20" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="20">
+      <c r="F20" s="20">
         <v>44933</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="G20" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="H20" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="H20" s="20"/>
-      <c r="I20" s="4">
+      <c r="I20" s="20"/>
+      <c r="J20" s="4">
         <v>18</v>
       </c>
-      <c r="J20" s="17"/>
-      <c r="K20" s="14">
+      <c r="K20" s="17"/>
+      <c r="L20" s="14">
         <v>66.67</v>
       </c>
-      <c r="L20" s="26" t="s">
+      <c r="M20" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="M20" s="8"/>
-      <c r="N20" s="28"/>
+      <c r="N20" s="8"/>
       <c r="O20" s="28"/>
       <c r="P20" s="28"/>
       <c r="Q20" s="28"/>
       <c r="R20" s="28"/>
       <c r="S20" s="28"/>
       <c r="T20" s="28"/>
-    </row>
-    <row r="21" spans="1:20">
+      <c r="U20" s="28"/>
+    </row>
+    <row r="21" spans="1:21" ht="16">
       <c r="A21" s="8" t="s">
         <v>21</v>
       </c>
@@ -2161,41 +2400,44 @@
         <v>38</v>
       </c>
       <c r="C21" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="E21" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="20">
+      <c r="F21" s="20">
         <v>44934</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="G21" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="H21" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="H21" s="20"/>
-      <c r="I21" s="4">
+      <c r="I21" s="20"/>
+      <c r="J21" s="4">
         <v>27</v>
       </c>
-      <c r="J21" s="17"/>
-      <c r="K21" s="14">
+      <c r="K21" s="17"/>
+      <c r="L21" s="14">
         <v>91.67</v>
       </c>
-      <c r="L21" s="26" t="s">
+      <c r="M21" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="28"/>
+      <c r="N21" s="2"/>
       <c r="O21" s="28"/>
       <c r="P21" s="28"/>
       <c r="Q21" s="28"/>
       <c r="R21" s="28"/>
       <c r="S21" s="28"/>
       <c r="T21" s="28"/>
-    </row>
-    <row r="22" spans="1:20">
+      <c r="U21" s="28"/>
+    </row>
+    <row r="22" spans="1:21" ht="16">
       <c r="A22" s="8" t="s">
         <v>18</v>
       </c>
@@ -2203,43 +2445,46 @@
         <v>38</v>
       </c>
       <c r="C22" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="E22" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="20">
+      <c r="F22" s="20">
         <v>44934</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="G22" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="H22" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="H22" s="20"/>
-      <c r="I22" s="4">
+      <c r="I22" s="20"/>
+      <c r="J22" s="4">
         <v>28</v>
       </c>
-      <c r="J22" s="17"/>
-      <c r="K22" s="14">
+      <c r="K22" s="17"/>
+      <c r="L22" s="14">
         <v>91.67</v>
       </c>
-      <c r="L22" s="26" t="s">
+      <c r="M22" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="M22" s="8"/>
-      <c r="N22" s="30" t="s">
+      <c r="N22" s="8"/>
+      <c r="O22" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="O22" s="30"/>
       <c r="P22" s="30"/>
       <c r="Q22" s="30"/>
       <c r="R22" s="30"/>
       <c r="S22" s="30"/>
-      <c r="T22" s="28"/>
-    </row>
-    <row r="23" spans="1:20">
+      <c r="T22" s="30"/>
+      <c r="U22" s="28"/>
+    </row>
+    <row r="23" spans="1:21" ht="16">
       <c r="A23" s="8" t="s">
         <v>19</v>
       </c>
@@ -2247,43 +2492,46 @@
         <v>38</v>
       </c>
       <c r="C23" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="E23" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="20">
+      <c r="F23" s="20">
         <v>44935</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="G23" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="H23" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="H23" s="20"/>
-      <c r="I23" s="4">
+      <c r="I23" s="20"/>
+      <c r="J23" s="4">
         <v>23</v>
       </c>
-      <c r="J23" s="17"/>
-      <c r="K23" s="14">
+      <c r="K23" s="17"/>
+      <c r="L23" s="14">
         <v>99</v>
       </c>
-      <c r="L23" s="26" t="s">
+      <c r="M23" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="M23" s="2"/>
-      <c r="N23" s="28"/>
+      <c r="N23" s="2"/>
       <c r="O23" s="28"/>
-      <c r="P23" s="28" t="s">
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="Q23" s="28"/>
       <c r="R23" s="28"/>
       <c r="S23" s="28"/>
       <c r="T23" s="28"/>
-    </row>
-    <row r="24" spans="1:20">
+      <c r="U23" s="28"/>
+    </row>
+    <row r="24" spans="1:21" ht="16">
       <c r="A24" s="8" t="s">
         <v>20</v>
       </c>
@@ -2291,43 +2539,46 @@
         <v>38</v>
       </c>
       <c r="C24" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="E24" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E24" s="20">
+      <c r="F24" s="20">
         <v>44935</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="G24" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="H24" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="H24" s="20"/>
-      <c r="I24" s="4">
+      <c r="I24" s="20"/>
+      <c r="J24" s="4">
         <v>27</v>
       </c>
-      <c r="J24" s="4"/>
-      <c r="K24" s="14">
+      <c r="K24" s="4"/>
+      <c r="L24" s="14">
         <v>99</v>
       </c>
-      <c r="L24" s="26" t="s">
+      <c r="M24" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="M24" s="8"/>
-      <c r="N24" s="28"/>
+      <c r="N24" s="8"/>
       <c r="O24" s="28"/>
       <c r="P24" s="28"/>
       <c r="Q24" s="28"/>
-      <c r="R24" s="28" t="s">
+      <c r="R24" s="28"/>
+      <c r="S24" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="S24" s="28"/>
       <c r="T24" s="28"/>
-    </row>
-    <row r="25" spans="1:20">
+      <c r="U24" s="28"/>
+    </row>
+    <row r="25" spans="1:21" ht="16">
       <c r="A25" s="8" t="s">
         <v>18</v>
       </c>
@@ -2335,41 +2586,44 @@
         <v>38</v>
       </c>
       <c r="C25" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="E25" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E25" s="20">
+      <c r="F25" s="20">
         <v>44935</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="G25" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="H25" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="H25" s="20"/>
-      <c r="I25" s="4">
+      <c r="I25" s="20"/>
+      <c r="J25" s="4">
         <v>27</v>
       </c>
-      <c r="J25" s="4"/>
-      <c r="K25" s="14">
+      <c r="K25" s="4"/>
+      <c r="L25" s="14">
         <v>91.67</v>
       </c>
-      <c r="L25" s="26" t="s">
+      <c r="M25" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="M25" s="8"/>
-      <c r="N25" s="28"/>
+      <c r="N25" s="8"/>
       <c r="O25" s="28"/>
       <c r="P25" s="28"/>
       <c r="Q25" s="28"/>
       <c r="R25" s="28"/>
       <c r="S25" s="28"/>
       <c r="T25" s="28"/>
-    </row>
-    <row r="26" spans="1:20">
+      <c r="U25" s="28"/>
+    </row>
+    <row r="26" spans="1:21" ht="16">
       <c r="A26" s="8" t="s">
         <v>18</v>
       </c>
@@ -2377,49 +2631,52 @@
         <v>38</v>
       </c>
       <c r="C26" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="E26" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E26" s="20">
+      <c r="F26" s="20">
         <v>44935</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="G26" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="H26" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="H26" s="20"/>
-      <c r="I26" s="4">
+      <c r="I26" s="20"/>
+      <c r="J26" s="4">
         <v>25</v>
       </c>
-      <c r="J26" s="17"/>
-      <c r="K26" s="14">
+      <c r="K26" s="17"/>
+      <c r="L26" s="14">
         <v>75</v>
       </c>
-      <c r="L26" s="26" t="s">
+      <c r="M26" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="M26" s="8"/>
-      <c r="N26" s="28"/>
+      <c r="N26" s="8"/>
       <c r="O26" s="28"/>
-      <c r="P26" s="28" t="s">
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="Q26" s="28" t="s">
+      <c r="R26" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="R26" s="28" t="s">
+      <c r="S26" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="S26" s="28" t="s">
+      <c r="T26" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="T26" s="28"/>
-    </row>
-    <row r="27" spans="1:20">
+      <c r="U26" s="28"/>
+    </row>
+    <row r="27" spans="1:21" ht="16">
       <c r="A27" s="8" t="s">
         <v>19</v>
       </c>
@@ -2427,42 +2684,45 @@
         <v>38</v>
       </c>
       <c r="C27" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="E27" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E27" s="20">
+      <c r="F27" s="20">
         <v>44936</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="G27" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="H27" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="H27" s="20"/>
-      <c r="I27" s="4">
+      <c r="I27" s="20"/>
+      <c r="J27" s="4">
         <v>25</v>
       </c>
-      <c r="J27" s="4"/>
-      <c r="K27" s="14">
+      <c r="K27" s="4"/>
+      <c r="L27" s="14">
         <f>-3/15*100</f>
         <v>-20</v>
       </c>
-      <c r="L27" s="26" t="s">
+      <c r="M27" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="M27" s="8"/>
-      <c r="N27" s="28"/>
+      <c r="N27" s="8"/>
       <c r="O27" s="28"/>
       <c r="P27" s="28"/>
       <c r="Q27" s="28"/>
       <c r="R27" s="28"/>
       <c r="S27" s="28"/>
       <c r="T27" s="28"/>
-    </row>
-    <row r="28" spans="1:20">
+      <c r="U27" s="28"/>
+    </row>
+    <row r="28" spans="1:21" ht="16">
       <c r="A28" s="8" t="s">
         <v>20</v>
       </c>
@@ -2470,42 +2730,45 @@
         <v>38</v>
       </c>
       <c r="C28" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="E28" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E28" s="20">
+      <c r="F28" s="20">
         <v>44936</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="G28" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="H28" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="H28" s="20"/>
-      <c r="I28" s="4">
+      <c r="I28" s="20"/>
+      <c r="J28" s="4">
         <v>26</v>
       </c>
-      <c r="J28" s="4"/>
-      <c r="K28" s="14">
+      <c r="K28" s="4"/>
+      <c r="L28" s="14">
         <f>20/24*100</f>
         <v>83.333333333333343</v>
       </c>
-      <c r="L28" s="26" t="s">
+      <c r="M28" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="28"/>
+      <c r="N28" s="2"/>
       <c r="O28" s="28"/>
       <c r="P28" s="28"/>
       <c r="Q28" s="28"/>
       <c r="R28" s="28"/>
       <c r="S28" s="28"/>
       <c r="T28" s="28"/>
-    </row>
-    <row r="29" spans="1:20">
+      <c r="U28" s="28"/>
+    </row>
+    <row r="29" spans="1:21" ht="16">
       <c r="A29" s="8" t="s">
         <v>21</v>
       </c>
@@ -2513,41 +2776,44 @@
         <v>38</v>
       </c>
       <c r="C29" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="E29" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E29" s="20">
+      <c r="F29" s="20">
         <v>44937</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="G29" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="H29" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="H29" s="20"/>
-      <c r="I29" s="4">
+      <c r="I29" s="20"/>
+      <c r="J29" s="4">
         <v>21</v>
       </c>
-      <c r="J29" s="4"/>
-      <c r="K29" s="14">
+      <c r="K29" s="4"/>
+      <c r="L29" s="14">
         <v>91.67</v>
       </c>
-      <c r="L29" s="26" t="s">
+      <c r="M29" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="M29" s="8"/>
-      <c r="N29" s="28"/>
+      <c r="N29" s="8"/>
       <c r="O29" s="28"/>
       <c r="P29" s="28"/>
       <c r="Q29" s="28"/>
       <c r="R29" s="28"/>
       <c r="S29" s="28"/>
       <c r="T29" s="28"/>
-    </row>
-    <row r="30" spans="1:20">
+      <c r="U29" s="28"/>
+    </row>
+    <row r="30" spans="1:21" ht="16">
       <c r="A30" s="8" t="s">
         <v>18</v>
       </c>
@@ -2555,41 +2821,44 @@
         <v>38</v>
       </c>
       <c r="C30" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="E30" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E30" s="20">
+      <c r="F30" s="20">
         <v>44937</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="G30" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="H30" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="H30" s="20"/>
-      <c r="I30" s="4">
+      <c r="I30" s="20"/>
+      <c r="J30" s="4">
         <v>21</v>
       </c>
-      <c r="J30" s="4"/>
-      <c r="K30" s="14">
+      <c r="K30" s="4"/>
+      <c r="L30" s="14">
         <v>83.33</v>
       </c>
-      <c r="L30" s="26" t="s">
+      <c r="M30" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="M30" s="8"/>
-      <c r="N30" s="28"/>
+      <c r="N30" s="8"/>
       <c r="O30" s="28"/>
       <c r="P30" s="28"/>
       <c r="Q30" s="28"/>
       <c r="R30" s="28"/>
       <c r="S30" s="28"/>
       <c r="T30" s="28"/>
-    </row>
-    <row r="31" spans="1:20">
+      <c r="U30" s="28"/>
+    </row>
+    <row r="31" spans="1:21" ht="16">
       <c r="A31" s="8" t="s">
         <v>19</v>
       </c>
@@ -2597,43 +2866,46 @@
         <v>38</v>
       </c>
       <c r="C31" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="E31" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E31" s="20">
+      <c r="F31" s="20">
         <v>44938</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="G31" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="H31" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="H31" s="20"/>
-      <c r="I31" s="4">
+      <c r="I31" s="20"/>
+      <c r="J31" s="4">
         <v>21</v>
       </c>
-      <c r="J31" s="4"/>
-      <c r="K31" s="14">
+      <c r="K31" s="4"/>
+      <c r="L31" s="14">
         <v>91.67</v>
       </c>
-      <c r="L31" s="26" t="s">
+      <c r="M31" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="28"/>
+      <c r="N31" s="2"/>
       <c r="O31" s="28"/>
       <c r="P31" s="28"/>
       <c r="Q31" s="28"/>
       <c r="R31" s="28"/>
-      <c r="S31" s="28" t="s">
+      <c r="S31" s="28"/>
+      <c r="T31" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="T31" s="28"/>
-    </row>
-    <row r="32" spans="1:20">
+      <c r="U31" s="28"/>
+    </row>
+    <row r="32" spans="1:21" ht="16">
       <c r="A32" s="8" t="s">
         <v>20</v>
       </c>
@@ -2641,42 +2913,45 @@
         <v>38</v>
       </c>
       <c r="C32" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D32" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="E32" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E32" s="20">
+      <c r="F32" s="20">
         <v>44938</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="G32" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="H32" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="H32" s="20"/>
-      <c r="I32" s="4">
+      <c r="I32" s="20"/>
+      <c r="J32" s="4">
         <v>23</v>
       </c>
-      <c r="J32" s="4"/>
-      <c r="K32" s="14">
+      <c r="K32" s="4"/>
+      <c r="L32" s="14">
         <f>14/24*100</f>
         <v>58.333333333333336</v>
       </c>
-      <c r="L32" s="26" t="s">
+      <c r="M32" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="M32" s="8"/>
-      <c r="N32" s="28"/>
+      <c r="N32" s="8"/>
       <c r="O32" s="28"/>
       <c r="P32" s="28"/>
       <c r="Q32" s="28"/>
       <c r="R32" s="28"/>
       <c r="S32" s="28"/>
       <c r="T32" s="28"/>
-    </row>
-    <row r="33" spans="1:20">
+      <c r="U32" s="28"/>
+    </row>
+    <row r="33" spans="1:21" ht="16">
       <c r="A33" s="8" t="s">
         <v>21</v>
       </c>
@@ -2684,39 +2959,42 @@
         <v>38</v>
       </c>
       <c r="C33" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="E33" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E33" s="20">
+      <c r="F33" s="20">
         <v>44938</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="G33" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="G33" s="16" t="s">
+      <c r="H33" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="I33" s="6">
+      <c r="J33" s="6">
         <v>22</v>
       </c>
-      <c r="K33" s="15">
+      <c r="L33" s="15">
         <v>99</v>
       </c>
-      <c r="L33" s="5">
+      <c r="M33" s="5">
         <v>18927570477</v>
       </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="29"/>
+      <c r="N33" s="2"/>
       <c r="O33" s="29"/>
       <c r="P33" s="29"/>
       <c r="Q33" s="29"/>
       <c r="R33" s="29"/>
       <c r="S33" s="29"/>
       <c r="T33" s="29"/>
-    </row>
-    <row r="34" spans="1:20">
+      <c r="U33" s="29"/>
+    </row>
+    <row r="34" spans="1:21" ht="16">
       <c r="A34" s="8" t="s">
         <v>18</v>
       </c>
@@ -2724,41 +3002,44 @@
         <v>38</v>
       </c>
       <c r="C34" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="E34" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E34" s="20">
+      <c r="F34" s="20">
         <v>44938</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="G34" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="H34" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="H34" s="20"/>
-      <c r="I34" s="4">
+      <c r="I34" s="20"/>
+      <c r="J34" s="4">
         <v>22</v>
       </c>
-      <c r="J34" s="4"/>
-      <c r="K34" s="14">
+      <c r="K34" s="4"/>
+      <c r="L34" s="14">
         <v>91.67</v>
       </c>
-      <c r="L34" s="26" t="s">
+      <c r="M34" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="29"/>
+      <c r="N34" s="2"/>
       <c r="O34" s="29"/>
       <c r="P34" s="29"/>
       <c r="Q34" s="29"/>
       <c r="R34" s="29"/>
       <c r="S34" s="29"/>
       <c r="T34" s="29"/>
-    </row>
-    <row r="35" spans="1:20">
+      <c r="U34" s="29"/>
+    </row>
+    <row r="35" spans="1:21" ht="16">
       <c r="A35" s="8" t="s">
         <v>19</v>
       </c>
@@ -2766,44 +3047,47 @@
         <v>38</v>
       </c>
       <c r="C35" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D35" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="E35" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E35" s="20">
+      <c r="F35" s="20">
         <v>44938</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="G35" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="H35" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="H35" s="20"/>
-      <c r="I35" s="17">
+      <c r="I35" s="20"/>
+      <c r="J35" s="17">
         <v>29</v>
       </c>
-      <c r="J35" s="4"/>
-      <c r="K35" s="14">
+      <c r="K35" s="4"/>
+      <c r="L35" s="14">
         <f>15/24*100</f>
         <v>62.5</v>
       </c>
-      <c r="L35" s="26" t="s">
+      <c r="M35" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="30" t="s">
+      <c r="N35" s="2"/>
+      <c r="O35" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="O35" s="30"/>
       <c r="P35" s="30"/>
       <c r="Q35" s="30"/>
       <c r="R35" s="30"/>
       <c r="S35" s="30"/>
-      <c r="T35" s="29"/>
-    </row>
-    <row r="36" spans="1:20">
+      <c r="T35" s="30"/>
+      <c r="U35" s="29"/>
+    </row>
+    <row r="36" spans="1:21" ht="16">
       <c r="A36" s="8" t="s">
         <v>20</v>
       </c>
@@ -2811,57 +3095,446 @@
         <v>38</v>
       </c>
       <c r="C36" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D36" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="E36" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E36" s="20">
+      <c r="F36" s="20">
         <v>44938</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="G36" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="H36" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="H36" s="20"/>
-      <c r="I36" s="4">
+      <c r="I36" s="20"/>
+      <c r="J36" s="4">
         <v>23</v>
       </c>
-      <c r="J36" s="4"/>
-      <c r="K36" s="14">
+      <c r="K36" s="4"/>
+      <c r="L36" s="14">
         <f>14/24*100</f>
         <v>58.333333333333336</v>
       </c>
-      <c r="L36" s="26" t="s">
+      <c r="M36" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="29"/>
+      <c r="N36" s="2"/>
       <c r="O36" s="29"/>
       <c r="P36" s="29"/>
       <c r="Q36" s="29"/>
       <c r="R36" s="29"/>
       <c r="S36" s="29"/>
       <c r="T36" s="29"/>
+      <c r="U36" s="29"/>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="F37" s="20">
+        <v>44998</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="I37" s="20"/>
+      <c r="J37" s="4">
+        <v>19</v>
+      </c>
+      <c r="K37" s="4"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="24">
+        <v>13385357376</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="O37" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="31"/>
+      <c r="S37" s="31"/>
+      <c r="T37" s="31"/>
+      <c r="U37" s="31"/>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="F38" s="20">
+        <v>44998</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="I38" s="20"/>
+      <c r="J38" s="4">
+        <v>19</v>
+      </c>
+      <c r="K38" s="4"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="R38" s="33"/>
+      <c r="S38" s="34"/>
+      <c r="T38" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="U38" s="2"/>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F39" s="20">
+        <v>45006</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="I39" s="20"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="26">
+        <v>19991902819</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F40" s="20">
+        <v>45006</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I40" s="20"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="26">
+        <v>17859019505</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="U40" s="2"/>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F41" s="20">
+        <v>45008</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="I41" s="20"/>
+      <c r="J41" s="4">
+        <v>21</v>
+      </c>
+      <c r="K41" s="4"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="26">
+        <v>15986923270</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="A42" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F42" s="20">
+        <v>45008</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I42" s="20"/>
+      <c r="J42" s="4">
+        <v>25</v>
+      </c>
+      <c r="K42" s="4"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="24">
+        <v>19878643327</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="A43" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F43" s="20">
+        <v>45008</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I43" s="20"/>
+      <c r="J43" s="4">
+        <v>18</v>
+      </c>
+      <c r="K43" s="4"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="26">
+        <v>15631177351</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+    </row>
+    <row r="44" spans="1:21">
+      <c r="A44" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F44" s="20">
+        <v>45008</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I44" s="20"/>
+      <c r="J44" s="4">
+        <v>18</v>
+      </c>
+      <c r="K44" s="4"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="26">
+        <v>18718157677</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+    </row>
+    <row r="45" spans="1:21">
+      <c r="A45" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="B45" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D45" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F45" s="20">
+        <v>45018</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="H45" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="I45" s="20"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="26">
+        <v>18211535473</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="N22:S22"/>
-    <mergeCell ref="N35:S35"/>
+  <mergeCells count="4">
+    <mergeCell ref="O22:T22"/>
+    <mergeCell ref="O35:T35"/>
+    <mergeCell ref="O37:U37"/>
+    <mergeCell ref="Q38:S38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="K16">
-    <cfRule type="iconSet" priority="2">
-      <iconSet>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="-40"/>
-        <cfvo type="num" val="40"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K31:K32 K34:K39 K41:K1048576 K1:K2">
+  <conditionalFormatting sqref="L1:L2 L31:L32 L34:L39 L41:L1048576">
     <cfRule type="iconSet" priority="6">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -2870,8 +3543,17 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:K30 K3:K15">
+  <conditionalFormatting sqref="L3:L15 L17:L30">
     <cfRule type="iconSet" priority="7">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="-40"/>
+        <cfvo type="num" val="40"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L16">
+    <cfRule type="iconSet" priority="2">
       <iconSet>
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="-40"/>
